--- a/UpFormat.xlsx
+++ b/UpFormat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Emb\B1ROV\OurEDA-B1S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ABDA53-5AD4-46CB-8319-942D03C45015}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4726103-A171-42DA-863B-0F8588E5F126}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="830" yWindow="-110" windowWidth="24880" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2300" yWindow="3040" windowWidth="18500" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>起始位</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -188,6 +188,57 @@
  湿度：Byte8~Byte9 
 Hum=(高 8 位&lt;&lt;8)|低 8 位 
  Hum=Hum/100 百分制</t>
+  </si>
+  <si>
+    <t>起始位</t>
+  </si>
+  <si>
+    <t>2-9</t>
+  </si>
+  <si>
+    <t>九轴传感器数据</t>
+  </si>
+  <si>
+    <t>10-33</t>
+  </si>
+  <si>
+    <t>水深传感器数据</t>
+  </si>
+  <si>
+    <t>34-37</t>
+  </si>
+  <si>
+    <t>确认位</t>
+  </si>
+  <si>
+    <t>结束位</t>
+  </si>
+  <si>
+    <t>39-40</t>
+  </si>
+  <si>
+    <t>温度</t>
+  </si>
+  <si>
+    <t>气压</t>
+  </si>
+  <si>
+    <t>湿度</t>
+  </si>
+  <si>
+    <t>单位0.01℃</t>
+  </si>
+  <si>
+    <t>单位0.01Pa</t>
+  </si>
+  <si>
+    <t>单位0.01%</t>
+  </si>
+  <si>
+    <t>控水2</t>
+  </si>
+  <si>
+    <t>电水4</t>
   </si>
 </sst>
 </file>
@@ -284,29 +335,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -315,7 +363,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -598,324 +652,344 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="K1" s="7" t="s">
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
       <c r="P1" s="8"/>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
       <c r="V1" s="8"/>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
       <c r="AB1" s="8"/>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
       <c r="AH1" s="8"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="7" t="s">
+      <c r="C2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="8"/>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="8"/>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="P2" s="8"/>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="R2" s="8"/>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="T2" s="8"/>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="V2" s="8"/>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="X2" s="8"/>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="7" t="s">
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="AB2" s="8"/>
-      <c r="AC2" s="7" t="s">
+      <c r="AC2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="AD2" s="8"/>
-      <c r="AE2" s="7" t="s">
+      <c r="AE2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="AF2" s="8"/>
-      <c r="AG2" s="7" t="s">
+      <c r="AG2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="AH2" s="8"/>
-      <c r="AI2" s="7" t="s">
+      <c r="AI2" s="6" t="s">
         <v>27</v>
       </c>
       <c r="AJ2" s="8"/>
-      <c r="AK2" s="7" t="s">
+      <c r="AK2" s="6" t="s">
         <v>28</v>
       </c>
       <c r="AL2" s="8"/>
       <c r="AM2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AN2" s="9" t="s">
+      <c r="AN2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AO2" s="9"/>
+      <c r="AO2" s="11"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="7" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="8"/>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="N3" s="8"/>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="P3" s="8"/>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="R3" s="8"/>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="6" t="s">
         <v>35</v>
       </c>
       <c r="T3" s="8"/>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="V3" s="8"/>
-      <c r="W3" s="7" t="s">
+      <c r="W3" s="6" t="s">
         <v>38</v>
       </c>
       <c r="X3" s="8"/>
-      <c r="Y3" s="7" t="s">
+      <c r="Y3" s="6" t="s">
         <v>39</v>
       </c>
       <c r="Z3" s="8"/>
-      <c r="AA3" s="7" t="s">
+      <c r="AA3" s="6" t="s">
         <v>40</v>
       </c>
       <c r="AB3" s="8"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="7" t="s">
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="AJ3" s="8"/>
-      <c r="AK3" s="7" t="s">
+      <c r="AK3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="AL3" s="8"/>
-      <c r="AM3" s="3" t="s">
+      <c r="AM3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="AN3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AO3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>0</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>4</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>6</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>7</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>8</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>9</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>10</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>11</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>12</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <v>13</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <v>14</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <v>15</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="2">
         <v>16</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="2">
         <v>17</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="2">
         <v>18</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="2">
         <v>19</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="2">
         <v>20</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="2">
         <v>21</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="2">
         <v>22</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4" s="2">
         <v>23</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4" s="2">
         <v>24</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z4" s="2">
         <v>25</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4" s="2">
         <v>26</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB4" s="2">
         <v>27</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AC4" s="2">
         <v>28</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD4" s="2">
         <v>29</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AE4" s="2">
         <v>30</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AF4" s="2">
         <v>31</v>
       </c>
-      <c r="AG4" s="3">
+      <c r="AG4" s="2">
         <v>32</v>
       </c>
-      <c r="AH4" s="3">
+      <c r="AH4" s="2">
         <v>33</v>
       </c>
-      <c r="AI4" s="3">
+      <c r="AI4" s="2">
         <v>34</v>
       </c>
-      <c r="AJ4" s="3">
+      <c r="AJ4" s="2">
         <v>35</v>
       </c>
-      <c r="AK4" s="3">
+      <c r="AK4" s="2">
         <v>36</v>
       </c>
-      <c r="AL4" s="3">
+      <c r="AL4" s="2">
         <v>37</v>
       </c>
-      <c r="AM4" s="3">
+      <c r="AM4" s="2">
         <v>38</v>
       </c>
-      <c r="AN4" s="3">
+      <c r="AN4" s="2">
         <v>39</v>
       </c>
-      <c r="AO4" s="3">
+      <c r="AO4" s="2">
         <v>40</v>
       </c>
     </row>
@@ -923,102 +997,194 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="AK5" s="6" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="AK5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AL5" s="6"/>
-      <c r="AM5" s="6"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
     </row>
     <row r="6" spans="1:41" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:41" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:41" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:41" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:41" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>0</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="5">
+        <v>38</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="44">
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="K1:P1"/>
     <mergeCell ref="Q1:V1"/>
     <mergeCell ref="C5:J12"/>
@@ -1035,22 +1201,8 @@
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/UpFormat.xlsx
+++ b/UpFormat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Emb\B1ROV\OurEDA-B1S\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git_repository\OurEDA\OurEDA-B1S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4726103-A171-42DA-863B-0F8588E5F126}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAB9C9F-8098-405E-8CA4-06FC75C93440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="3040" windowWidth="18500" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
   <si>
     <t>起始位</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -240,16 +240,134 @@
   <si>
     <t>电水4</t>
   </si>
+  <si>
+    <t>0x05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0x25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x5a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xe2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xfc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xc9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x5f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x6d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -335,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -348,13 +466,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -363,15 +490,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -652,212 +771,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AS19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="C1" s="11" t="s">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="6" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="6" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="6" t="s">
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="6" t="s">
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="8"/>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="9"/>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="10"/>
+      <c r="K2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="6" t="s">
+      <c r="L2" s="9"/>
+      <c r="M2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="6" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="6" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="6" t="s">
+      <c r="R2" s="9"/>
+      <c r="S2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="6" t="s">
+      <c r="T2" s="9"/>
+      <c r="U2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="8"/>
-      <c r="W2" s="6" t="s">
+      <c r="V2" s="9"/>
+      <c r="W2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="6" t="s">
+      <c r="X2" s="9"/>
+      <c r="Y2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="6" t="s">
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="6" t="s">
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="6" t="s">
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="6" t="s">
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="6" t="s">
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="6" t="s">
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AL2" s="8"/>
+      <c r="AL2" s="9"/>
       <c r="AM2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AN2" s="11" t="s">
+      <c r="AN2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AO2" s="11"/>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AO2" s="10"/>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="6" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="6" t="s">
+      <c r="L3" s="9"/>
+      <c r="M3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="6" t="s">
+      <c r="N3" s="9"/>
+      <c r="O3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="6" t="s">
+      <c r="P3" s="9"/>
+      <c r="Q3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="8"/>
-      <c r="S3" s="6" t="s">
+      <c r="R3" s="9"/>
+      <c r="S3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="8"/>
-      <c r="U3" s="6" t="s">
+      <c r="T3" s="9"/>
+      <c r="U3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="V3" s="8"/>
-      <c r="W3" s="6" t="s">
+      <c r="V3" s="9"/>
+      <c r="W3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="6" t="s">
+      <c r="X3" s="9"/>
+      <c r="Y3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="6" t="s">
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AB3" s="8"/>
+      <c r="AB3" s="9"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
-      <c r="AI3" s="6" t="s">
+      <c r="AI3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="6" t="s">
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AL3" s="8"/>
+      <c r="AL3" s="9"/>
       <c r="AM3" s="2" t="s">
         <v>33</v>
       </c>
@@ -868,7 +987,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -993,132 +1112,274 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:45" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
       <c r="AK5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="AL5" s="4"/>
       <c r="AM5" s="4"/>
     </row>
-    <row r="6" spans="1:41" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:45" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="1:41" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:45" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:41" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:45" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:41" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:41" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:45" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:45" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>64</v>
+      </c>
+      <c r="R15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S15" t="s">
+        <v>69</v>
+      </c>
+      <c r="T15" t="s">
+        <v>70</v>
+      </c>
+      <c r="U15" t="s">
+        <v>73</v>
+      </c>
+      <c r="V15" t="s">
+        <v>72</v>
+      </c>
+      <c r="W15" t="s">
+        <v>74</v>
+      </c>
+      <c r="X15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12" t="s">
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
       <c r="L18" s="5" t="s">
         <v>48</v>
       </c>
@@ -1126,28 +1387,28 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>0</v>
       </c>
       <c r="B19" s="5">
         <v>1</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="12" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12" t="s">
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
       <c r="L19" s="5">
         <v>38</v>
       </c>
@@ -1157,18 +1418,22 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="C5:J12"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="W3:X3"/>
@@ -1185,23 +1450,20 @@
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="C5:J12"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/UpFormat.xlsx
+++ b/UpFormat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git_repository\OurEDA\OurEDA-B1S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAB9C9F-8098-405E-8CA4-06FC75C93440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF151E8-DD08-46E5-A1B8-01D958A3D87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="88">
   <si>
     <t>起始位</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -342,6 +342,18 @@
   </si>
   <si>
     <t>测试数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DepthToBottom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声呐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声呐确信度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,17 +465,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -472,25 +500,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -771,223 +785,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS19"/>
+  <dimension ref="A1:AU19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AN9" sqref="AN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C1" s="10" t="s">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="C1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="8" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="8" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="8" t="s">
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="8" t="s">
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="9"/>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN1" s="11"/>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="8" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="8" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="8" t="s">
+      <c r="N2" s="8"/>
+      <c r="O2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="8" t="s">
+      <c r="P2" s="8"/>
+      <c r="Q2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="8" t="s">
+      <c r="R2" s="8"/>
+      <c r="S2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="8" t="s">
+      <c r="T2" s="8"/>
+      <c r="U2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="9"/>
-      <c r="W2" s="8" t="s">
+      <c r="V2" s="8"/>
+      <c r="W2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="8" t="s">
+      <c r="X2" s="8"/>
+      <c r="Y2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="8" t="s">
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="8" t="s">
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="8" t="s">
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="8" t="s">
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="8" t="s">
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="8" t="s">
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="1" t="s">
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AT2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AO2" s="10"/>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AU2" s="11"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="8" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="8" t="s">
+      <c r="L3" s="8"/>
+      <c r="M3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="8" t="s">
+      <c r="N3" s="8"/>
+      <c r="O3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="8" t="s">
+      <c r="P3" s="8"/>
+      <c r="Q3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="9"/>
-      <c r="S3" s="8" t="s">
+      <c r="R3" s="8"/>
+      <c r="S3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="9"/>
-      <c r="U3" s="8" t="s">
+      <c r="T3" s="8"/>
+      <c r="U3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="V3" s="9"/>
-      <c r="W3" s="8" t="s">
+      <c r="V3" s="8"/>
+      <c r="W3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="8" t="s">
+      <c r="X3" s="8"/>
+      <c r="Y3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="8" t="s">
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AB3" s="9"/>
+      <c r="AB3" s="8"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
-      <c r="AI3" s="8" t="s">
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="8" t="s">
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="2" t="s">
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -1090,138 +1128,156 @@
       <c r="AH4" s="2">
         <v>33</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AI4" s="16">
         <v>34</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AJ4" s="16">
         <v>35</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AK4" s="16">
         <v>36</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AL4" s="16">
         <v>37</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AM4" s="16">
         <v>38</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AN4" s="16">
         <v>39</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AO4" s="15">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:45" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP4" s="2">
+        <v>41</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>42</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>43</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>44</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>45</v>
+      </c>
+      <c r="AU4" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="AK5" s="4" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="AK5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
-    </row>
-    <row r="6" spans="1:45" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="14"/>
+    </row>
+    <row r="6" spans="1:47" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:45" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:47" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:45" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:47" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:45" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="1:45" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:47" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:47" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -1359,81 +1415,81 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6" t="s">
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="5" t="s">
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>0</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>1</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="6" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6" t="s">
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="5">
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="4">
         <v>38</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="M19" s="4" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="C5:J12"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
+  <mergeCells count="48">
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="W3:X3"/>
@@ -1450,18 +1506,22 @@
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="C5:J12"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UpFormat.xlsx
+++ b/UpFormat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git_repository\OurEDA\OurEDA-B1S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF151E8-DD08-46E5-A1B8-01D958A3D87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B0470C-054E-482E-BA42-65532D04B948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>起始位</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -205,18 +205,12 @@
     <t>水深传感器数据</t>
   </si>
   <si>
-    <t>34-37</t>
-  </si>
-  <si>
     <t>确认位</t>
   </si>
   <si>
     <t>结束位</t>
   </si>
   <si>
-    <t>39-40</t>
-  </si>
-  <si>
     <t>温度</t>
   </si>
   <si>
@@ -239,110 +233,6 @@
   </si>
   <si>
     <t>电水4</t>
-  </si>
-  <si>
-    <t>0x05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0x25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x5a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xe2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xfc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xc9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x5f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x6d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xf0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DepthToBottom</t>
@@ -354,6 +244,22 @@
   </si>
   <si>
     <t>声呐确信度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声呐传感器数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34-39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40-43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45-46</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,21 +382,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,11 +396,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -787,65 +693,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AN9" sqref="AN9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="6" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="6" t="s">
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="6" t="s">
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="6" t="s">
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN1" s="11"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN1" s="9"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -854,147 +760,147 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="6" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="6" t="s">
+      <c r="N2" s="13"/>
+      <c r="O2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="6" t="s">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="6" t="s">
+      <c r="R2" s="13"/>
+      <c r="S2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="6" t="s">
+      <c r="T2" s="13"/>
+      <c r="U2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="8"/>
-      <c r="W2" s="6" t="s">
+      <c r="V2" s="13"/>
+      <c r="W2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="6" t="s">
+      <c r="X2" s="13"/>
+      <c r="Y2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="6" t="s">
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="6" t="s">
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="6" t="s">
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="6" t="s">
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="7" t="s">
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="6" t="s">
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AR2" s="8"/>
+      <c r="AR2" s="13"/>
       <c r="AS2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AT2" s="11" t="s">
+      <c r="AT2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AU2" s="11"/>
+      <c r="AU2" s="9"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="6" t="s">
+      <c r="J3" s="9"/>
+      <c r="K3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="6" t="s">
+      <c r="L3" s="13"/>
+      <c r="M3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="6" t="s">
+      <c r="N3" s="13"/>
+      <c r="O3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="6" t="s">
+      <c r="P3" s="13"/>
+      <c r="Q3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="8"/>
-      <c r="S3" s="6" t="s">
+      <c r="R3" s="13"/>
+      <c r="S3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="8"/>
-      <c r="U3" s="6" t="s">
+      <c r="T3" s="13"/>
+      <c r="U3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="V3" s="8"/>
-      <c r="W3" s="6" t="s">
+      <c r="V3" s="13"/>
+      <c r="W3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="6" t="s">
+      <c r="X3" s="13"/>
+      <c r="Y3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="6" t="s">
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AB3" s="8"/>
+      <c r="AB3" s="13"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
@@ -1007,14 +913,14 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
-      <c r="AO3" s="7" t="s">
+      <c r="AO3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AP3" s="8"/>
-      <c r="AQ3" s="6" t="s">
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AR3" s="8"/>
+      <c r="AR3" s="13"/>
       <c r="AS3" s="2" t="s">
         <v>33</v>
       </c>
@@ -1128,25 +1034,25 @@
       <c r="AH4" s="2">
         <v>33</v>
       </c>
-      <c r="AI4" s="16">
+      <c r="AI4" s="8">
         <v>34</v>
       </c>
-      <c r="AJ4" s="16">
+      <c r="AJ4" s="8">
         <v>35</v>
       </c>
-      <c r="AK4" s="16">
+      <c r="AK4" s="8">
         <v>36</v>
       </c>
-      <c r="AL4" s="16">
+      <c r="AL4" s="8">
         <v>37</v>
       </c>
-      <c r="AM4" s="16">
+      <c r="AM4" s="8">
         <v>38</v>
       </c>
-      <c r="AN4" s="16">
+      <c r="AN4" s="8">
         <v>39</v>
       </c>
-      <c r="AO4" s="15">
+      <c r="AO4" s="7">
         <v>40</v>
       </c>
       <c r="AP4" s="2">
@@ -1172,100 +1078,100 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="AK5" s="14" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="AK5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AL5" s="14"/>
-      <c r="AM5" s="14"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
     </row>
     <row r="6" spans="1:47" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:47" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:47" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+        <v>56</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:47" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:47" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1273,239 +1179,80 @@
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15" t="s">
-        <v>68</v>
-      </c>
-      <c r="M15" t="s">
-        <v>69</v>
-      </c>
-      <c r="N15" t="s">
-        <v>70</v>
-      </c>
-      <c r="O15" t="s">
-        <v>71</v>
-      </c>
-      <c r="P15" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>64</v>
-      </c>
-      <c r="R15" t="s">
-        <v>64</v>
-      </c>
-      <c r="S15" t="s">
-        <v>69</v>
-      </c>
-      <c r="T15" t="s">
-        <v>70</v>
-      </c>
-      <c r="U15" t="s">
-        <v>73</v>
-      </c>
-      <c r="V15" t="s">
-        <v>72</v>
-      </c>
-      <c r="W15" t="s">
-        <v>74</v>
-      </c>
-      <c r="X15" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12" t="s">
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="4" t="s">
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M18" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>0</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="12" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="4">
-        <v>38</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>50</v>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="4">
+        <v>44</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
+  <mergeCells count="50">
+    <mergeCell ref="I19:K19"/>
     <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="C3:D3"/>
     <mergeCell ref="K1:P1"/>
     <mergeCell ref="Q1:V1"/>
     <mergeCell ref="C5:J12"/>
@@ -1522,6 +1269,38 @@
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UpFormat.xlsx
+++ b/UpFormat.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git_repository\OurEDA\OurEDA-B1S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B0470C-054E-482E-BA42-65532D04B948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6647A5C3-6A02-4FEB-99A9-4617BAE12B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>起始位</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -42,12 +42,6 @@
     <t>仓位</t>
   </si>
   <si>
-    <t>0控制仓</t>
-  </si>
-  <si>
-    <t>1电源仓</t>
-  </si>
-  <si>
     <t>温湿度气压模块数据</t>
   </si>
   <si>
@@ -168,15 +162,6 @@
   </si>
   <si>
     <t>控制仓与电源仓数据将交替发送</t>
-  </si>
-  <si>
-    <t>Roll/32768*1800</t>
-  </si>
-  <si>
-    <t>Pitch/32768*1800</t>
-  </si>
-  <si>
-    <t>Yaw/32768*1800</t>
   </si>
   <si>
     <t>温度：Byte2~Byte3 
@@ -229,16 +214,6 @@
     <t>单位0.01%</t>
   </si>
   <si>
-    <t>控水2</t>
-  </si>
-  <si>
-    <t>电水4</t>
-  </si>
-  <si>
-    <t>DepthToBottom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>声呐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,6 +235,70 @@
   </si>
   <si>
     <t>45-46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制仓数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源仓数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25(起始位)01(仓位数据)ttttpppppppphhhh(温湿度大气压模块传感器数据)xxxxyyyyzzzzxxxxyyyyzzzzRRRRPPPPYYYYxxxxyyyyzzzz(九轴数据)DDDDcccc(声呐数据)WWWWdddd(水深传感器)0000(奇偶校验位)FFFF(结束位)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25(起始位)00(仓位数据)ttttpppppppphhhh(温湿度大气压模块传感器数据)xxxxyyyyzzzzxxxxyyyyzzzzRRRRPPPPYYYYxxxxyyyyzzzz(九轴数据)DDDDcccc(声呐数据)WWWWdddd(水深传感器)0000(奇偶校验位)FFFF(结束位)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低位仓位指示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二位漏水指示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000控制仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001电源仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010控制仓漏水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011电源仓漏水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pitch/32768*180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roll/32768*180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yaw/32768*180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g可取9.8m/s^2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,22 +426,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -410,6 +443,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -691,67 +730,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU19"/>
+  <dimension ref="A1:AU26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="C1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN1" s="9"/>
+      <c r="C1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN1" s="16"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -760,147 +799,147 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="12" t="s">
+      <c r="C2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12"/>
+      <c r="O2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="12" t="s">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="12"/>
+      <c r="S2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" s="13"/>
-      <c r="U2" s="12" t="s">
+      <c r="T2" s="12"/>
+      <c r="U2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="12"/>
+      <c r="W2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="13"/>
-      <c r="W2" s="12" t="s">
+      <c r="X2" s="12"/>
+      <c r="Y2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="12" t="s">
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="12" t="s">
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="12" t="s">
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="12" t="s">
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="14" t="s">
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT2" s="9" t="s">
+      <c r="AT2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AU2" s="9"/>
+      <c r="AU2" s="16"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="12" t="s">
+      <c r="C3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="12" t="s">
+      <c r="N3" s="12"/>
+      <c r="O3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" s="13"/>
-      <c r="S3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="13"/>
-      <c r="U3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="V3" s="13"/>
-      <c r="W3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB3" s="13"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="12"/>
+      <c r="S3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="12"/>
+      <c r="U3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="12"/>
+      <c r="W3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB3" s="12"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
@@ -913,22 +952,22 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
-      <c r="AO3" s="14" t="s">
+      <c r="AO3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AT3" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="AU3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
@@ -1076,106 +1115,118 @@
     </row>
     <row r="5" spans="1:47" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+        <v>61</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
       <c r="AK5" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL5" s="6"/>
       <c r="AM5" s="6"/>
     </row>
     <row r="6" spans="1:47" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="L6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="7" spans="1:47" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:47" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:47" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:47" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
@@ -1183,36 +1234,36 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
+      <c r="C18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
       <c r="O18" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -1222,73 +1273,55 @@
       <c r="B19" s="4">
         <v>1</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
+      <c r="C19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
       <c r="O19" s="4">
         <v>44</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="C5:J12"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="C1:J1"/>
@@ -1301,6 +1334,44 @@
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="C5:J12"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="L18:N18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UpFormat.xlsx
+++ b/UpFormat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git_repository\OurEDA\OurEDA-B1S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6647A5C3-6A02-4FEB-99A9-4617BAE12B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6BEFEA-8965-407E-BD6B-F314E8372BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,10 +432,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -445,9 +448,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -732,65 +732,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
       <c r="K1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="12"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="11"/>
       <c r="Q1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="12"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="11"/>
       <c r="W1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="12"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="11"/>
       <c r="AC1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="16" t="s">
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16" t="s">
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AN1" s="16"/>
+      <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -799,147 +799,147 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="12"/>
       <c r="K2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="12"/>
+      <c r="L2" s="11"/>
       <c r="M2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="12"/>
+      <c r="N2" s="11"/>
       <c r="O2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="12"/>
+      <c r="P2" s="11"/>
       <c r="Q2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="12"/>
+      <c r="R2" s="11"/>
       <c r="S2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="12"/>
+      <c r="T2" s="11"/>
       <c r="U2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="12"/>
+      <c r="V2" s="11"/>
       <c r="W2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="12"/>
+      <c r="X2" s="11"/>
       <c r="Y2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="12"/>
+      <c r="Z2" s="11"/>
       <c r="AA2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AB2" s="12"/>
+      <c r="AB2" s="11"/>
       <c r="AC2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" s="12"/>
+      <c r="AD2" s="11"/>
       <c r="AE2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AF2" s="12"/>
+      <c r="AF2" s="11"/>
       <c r="AG2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="16" t="s">
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="11" t="s">
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AP2" s="12"/>
+      <c r="AP2" s="11"/>
       <c r="AQ2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AR2" s="12"/>
+      <c r="AR2" s="11"/>
       <c r="AS2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AT2" s="16" t="s">
+      <c r="AT2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="AU2" s="16"/>
+      <c r="AU2" s="12"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="16"/>
+      <c r="J3" s="12"/>
       <c r="K3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="12"/>
+      <c r="L3" s="11"/>
       <c r="M3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="12"/>
+      <c r="N3" s="11"/>
       <c r="O3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="12"/>
+      <c r="P3" s="11"/>
       <c r="Q3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="12"/>
+      <c r="R3" s="11"/>
       <c r="S3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="12"/>
+      <c r="T3" s="11"/>
       <c r="U3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="12"/>
+      <c r="V3" s="11"/>
       <c r="W3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="X3" s="12"/>
+      <c r="X3" s="11"/>
       <c r="Y3" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="Z3" s="12"/>
+      <c r="Z3" s="11"/>
       <c r="AA3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AB3" s="12"/>
+      <c r="AB3" s="11"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
@@ -952,14 +952,14 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
-      <c r="AO3" s="11" t="s">
+      <c r="AO3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AP3" s="12"/>
+      <c r="AP3" s="11"/>
       <c r="AQ3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AR3" s="12"/>
+      <c r="AR3" s="11"/>
       <c r="AS3" s="2" t="s">
         <v>31</v>
       </c>
@@ -1117,16 +1117,16 @@
       <c r="B5" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
       <c r="AK5" s="6" t="s">
         <v>32</v>
       </c>
@@ -1137,14 +1137,14 @@
       <c r="A6" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
       <c r="L6" t="s">
         <v>71</v>
       </c>
@@ -1153,76 +1153,76 @@
       <c r="A7" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:47" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:47" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:47" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1273,11 +1273,11 @@
       <c r="B19" s="4">
         <v>1</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="9" t="s">
         <v>40</v>
       </c>
@@ -1322,24 +1322,22 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="C5:J12"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="L18:N18"/>
     <mergeCell ref="AT2:AU2"/>
     <mergeCell ref="AQ3:AR3"/>
     <mergeCell ref="AQ2:AR2"/>
@@ -1356,22 +1354,24 @@
     <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="C5:J12"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
